--- a/biology/Médecine/Mini-mental_state/Mini-mental_state.xlsx
+++ b/biology/Médecine/Mini-mental_state/Mini-mental_state.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le mini-mental state (MMS) ou mini-mental state examination (MMSE) ou test de Folstein est un test d'évaluation des fonctions cognitives et de la capacité mnésique d'une personne. Le mini mental test est employé à visée d'orientation diagnostique devant une suspicion de démence. Il est notamment employé dans le cadre d'un dépistage de la démence de type Alzheimer.
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été publié pour la première fois par Folstein en 1975[1]. Le formulaire a été acheté par Reed Elsevier qui dispose donc des droits y afférents et oblige théoriquement tout utilisateur à reverser un dollar par patient testé[2] à partir des années 2000[3]. Une tentative de diffusion d'une forme libre du questionnaire échoue en 2011 sous la pression des ayants droit du MMS[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été publié pour la première fois par Folstein en 1975. Le formulaire a été acheté par Reed Elsevier qui dispose donc des droits y afférents et oblige théoriquement tout utilisateur à reverser un dollar par patient testé à partir des années 2000. Une tentative de diffusion d'une forme libre du questionnaire échoue en 2011 sous la pression des ayants droit du MMS.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Détails du test</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le test est universel et consiste en une série de trente questions, de difficulté variable, réparties en six catégories :
 évaluation des capacités d'orientation dans le temps et dans l'espace (jour, mois, année, lieu, étage) ;
@@ -581,9 +597,11 @@
           <t>Analyse et interprétations du résultat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon une recommandation de l'HAS[5], un score rendu en fin de test inférieur ou égal à 24 points permet d'évoquer un état de conscience altéré et d'orienter vers le diagnostic de la démence.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon une recommandation de l'HAS, un score rendu en fin de test inférieur ou égal à 24 points permet d'évoquer un état de conscience altéré et d'orienter vers le diagnostic de la démence.
 Le score est modulé et pondéré en fonction d'une grille de points correspondant à l'origine socio-culturelle de la personne, son niveau d'étude et à la durée totale de l'examen.
 Bien qu'il ne s'agisse pas d'un outil de diagnostic, le type de démence peut être précisé en fonction des sous-scores de chacune des parties : les troubles mnésiques orientent davantage sur le diagnostic de démence type Alzheimer, alors que les déficits de l'attention orientent sur le diagnostic d'une démence sous-corticale, un syndrome frontal ou encore une démence vasculaire.
 </t>
